--- a/300-index-ajout-rg-sur-la-stu-note/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/300-index-ajout-rg-sur-la-stu-note/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:15:57+00:00</t>
+    <t>2025-01-06T13:19:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
